--- a/biology/Zoologie/Bulbul_à_ventre_marron/Bulbul_à_ventre_marron.xlsx
+++ b/biology/Zoologie/Bulbul_à_ventre_marron/Bulbul_à_ventre_marron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_ventre_marron</t>
+          <t>Bulbul_à_ventre_marron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alophoixus ruficrissus
 Le Bulbul à ventre marron (Alophoixus ruficrissus) est une espèce d'oiseaux de la famille des Pycnonotidae et du genre Alophoixus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_ventre_marron</t>
+          <t>Bulbul_à_ventre_marron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de l'île de Bornéo.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_ventre_marron</t>
+          <t>Bulbul_à_ventre_marron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Alophoixus ruficrissus meratusensis
 Alophoixus ruficrissus ruficrissus
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_ventre_marron</t>
+          <t>Bulbul_à_ventre_marron</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Alophoixus ruficrissus a été décrite pour la première fois en 1879 par l'ornithologue britannique Richard Bowdler Sharpe (1847-1909) sous le protonyme Criniger ruficrissus[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Alophoixus ruficrissus a été décrite pour la première fois en 1879 par l'ornithologue britannique Richard Bowdler Sharpe (1847-1909) sous le protonyme Criniger ruficrissus,.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_ventre_marron</t>
+          <t>Bulbul_à_ventre_marron</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) R. Bowdler Sharpe, « On Collections of Birds from Kina Balu Mountain, in North-western Borneo », Proceedings of the Zoological Society of London, Londres, ZSL, vol. 47, no 1,‎ 1879, p. 245–249 (ISSN 0370-2774, OCLC 1779524, BNF 32843178, DOI 10.1111/J.1096-3642.1879.TB02653.X, lire en ligne)</t>
         </is>
